--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H2">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I2">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J2">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.50091655847057</v>
+        <v>0.5025675000000001</v>
       </c>
       <c r="N2">
-        <v>0.50091655847057</v>
+        <v>1.005135</v>
       </c>
       <c r="O2">
-        <v>0.002911497918145221</v>
+        <v>0.002717219326525538</v>
       </c>
       <c r="P2">
-        <v>0.002911497918145221</v>
+        <v>0.001814075008651434</v>
       </c>
       <c r="Q2">
-        <v>23.34117875833655</v>
+        <v>23.45842737755625</v>
       </c>
       <c r="R2">
-        <v>23.34117875833655</v>
+        <v>93.83370951022501</v>
       </c>
       <c r="S2">
-        <v>0.001477806510217052</v>
+        <v>0.00133114665241444</v>
       </c>
       <c r="T2">
-        <v>0.001477806510217052</v>
+        <v>0.0007146556243717295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H3">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I3">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J3">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>170.507715292399</v>
+        <v>182.713089</v>
       </c>
       <c r="N3">
-        <v>170.507715292399</v>
+        <v>548.139267</v>
       </c>
       <c r="O3">
-        <v>0.9910490074779278</v>
+        <v>0.9878703589865653</v>
       </c>
       <c r="P3">
-        <v>0.9910490074779278</v>
+        <v>0.9892857631315353</v>
       </c>
       <c r="Q3">
-        <v>7945.137758006987</v>
+        <v>8528.529459695406</v>
       </c>
       <c r="R3">
-        <v>7945.137758006987</v>
+        <v>51171.17675817244</v>
       </c>
       <c r="S3">
-        <v>0.5030327056280512</v>
+        <v>0.4839507464661994</v>
       </c>
       <c r="T3">
-        <v>0.5030327056280512</v>
+        <v>0.3897295488671144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H4">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I4">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J4">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.882876332033295</v>
+        <v>0.1515973333333333</v>
       </c>
       <c r="N4">
-        <v>0.882876332033295</v>
+        <v>0.454792</v>
       </c>
       <c r="O4">
-        <v>0.005131578422049008</v>
+        <v>0.000819637569049068</v>
       </c>
       <c r="P4">
-        <v>0.005131578422049008</v>
+        <v>0.0008208119320634572</v>
       </c>
       <c r="Q4">
-        <v>41.13933536238724</v>
+        <v>7.076134120553332</v>
       </c>
       <c r="R4">
-        <v>41.13933536238724</v>
+        <v>42.45680472332</v>
       </c>
       <c r="S4">
-        <v>0.002604666124791341</v>
+        <v>0.0004015346849559964</v>
       </c>
       <c r="T4">
-        <v>0.002604666124791341</v>
+        <v>0.0003233592111699101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H5">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I5">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J5">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.156204902765566</v>
+        <v>1.297988666666667</v>
       </c>
       <c r="N5">
-        <v>0.156204902765566</v>
+        <v>3.893966</v>
       </c>
       <c r="O5">
-        <v>0.0009079161818779087</v>
+        <v>0.007017803361096332</v>
       </c>
       <c r="P5">
-        <v>0.0009079161818779087</v>
+        <v>0.007027858352498311</v>
       </c>
       <c r="Q5">
-        <v>7.278670462625298</v>
+        <v>60.58643440710166</v>
       </c>
       <c r="R5">
-        <v>7.278670462625298</v>
+        <v>363.51860644261</v>
       </c>
       <c r="S5">
-        <v>0.000460836477315887</v>
+        <v>0.003437972547976573</v>
       </c>
       <c r="T5">
-        <v>0.000460836477315887</v>
+        <v>0.00276862779926307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.49773470975826</v>
+        <v>46.6771675</v>
       </c>
       <c r="H6">
-        <v>2.49773470975826</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I6">
-        <v>0.02720758558845996</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J6">
-        <v>0.02720758558845996</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.50091655847057</v>
+        <v>0.291303</v>
       </c>
       <c r="N6">
-        <v>0.50091655847057</v>
+        <v>0.582606</v>
       </c>
       <c r="O6">
-        <v>0.002911497918145221</v>
+        <v>0.001574980756763756</v>
       </c>
       <c r="P6">
-        <v>0.002911497918145221</v>
+        <v>0.001051491575251461</v>
       </c>
       <c r="Q6">
-        <v>1.251156674784596</v>
+        <v>13.5971989242525</v>
       </c>
       <c r="R6">
-        <v>1.251156674784596</v>
+        <v>54.38879569700999</v>
       </c>
       <c r="S6">
-        <v>7.921482879855908E-05</v>
+        <v>0.0007715720043343107</v>
       </c>
       <c r="T6">
-        <v>7.921482879855908E-05</v>
+        <v>0.0004142355551171889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.49773470975826</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H7">
-        <v>2.49773470975826</v>
+        <v>0.117076</v>
       </c>
       <c r="I7">
-        <v>0.02720758558845996</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J7">
-        <v>0.02720758558845996</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>170.507715292399</v>
+        <v>0.5025675000000001</v>
       </c>
       <c r="N7">
-        <v>170.507715292399</v>
+        <v>1.005135</v>
       </c>
       <c r="O7">
-        <v>0.9910490074779278</v>
+        <v>0.002717219326525538</v>
       </c>
       <c r="P7">
-        <v>0.9910490074779278</v>
+        <v>0.001814075008651434</v>
       </c>
       <c r="Q7">
-        <v>425.8830387674043</v>
+        <v>0.01961286421</v>
       </c>
       <c r="R7">
-        <v>425.8830387674043</v>
+        <v>0.11767718526</v>
       </c>
       <c r="S7">
-        <v>0.02696405069331401</v>
+        <v>1.112930467043107E-06</v>
       </c>
       <c r="T7">
-        <v>0.02696405069331401</v>
+        <v>8.962521331113828E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.49773470975826</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H8">
-        <v>2.49773470975826</v>
+        <v>0.117076</v>
       </c>
       <c r="I8">
-        <v>0.02720758558845996</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J8">
-        <v>0.02720758558845996</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.882876332033295</v>
+        <v>182.713089</v>
       </c>
       <c r="N8">
-        <v>0.882876332033295</v>
+        <v>548.139267</v>
       </c>
       <c r="O8">
-        <v>0.005131578422049008</v>
+        <v>0.9878703589865653</v>
       </c>
       <c r="P8">
-        <v>0.005131578422049008</v>
+        <v>0.9892857631315353</v>
       </c>
       <c r="Q8">
-        <v>2.205190858943619</v>
+        <v>7.130439202588001</v>
       </c>
       <c r="R8">
-        <v>2.205190858943619</v>
+        <v>64.17395282329201</v>
       </c>
       <c r="S8">
-        <v>0.0001396178591217927</v>
+        <v>0.00040461622264802</v>
       </c>
       <c r="T8">
-        <v>0.0001396178591217927</v>
+        <v>0.0004887611985363755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.49773470975826</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H9">
-        <v>2.49773470975826</v>
+        <v>0.117076</v>
       </c>
       <c r="I9">
-        <v>0.02720758558845996</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J9">
-        <v>0.02720758558845996</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.156204902765566</v>
+        <v>0.1515973333333333</v>
       </c>
       <c r="N9">
-        <v>0.156204902765566</v>
+        <v>0.454792</v>
       </c>
       <c r="O9">
-        <v>0.0009079161818779087</v>
+        <v>0.000819637569049068</v>
       </c>
       <c r="P9">
-        <v>0.0009079161818779087</v>
+        <v>0.0008208119320634572</v>
       </c>
       <c r="Q9">
-        <v>0.3901584074719682</v>
+        <v>0.005916136465777778</v>
       </c>
       <c r="R9">
-        <v>0.3901584074719682</v>
+        <v>0.05324522819200001</v>
       </c>
       <c r="S9">
-        <v>2.470220722559098E-05</v>
+        <v>3.35710707495324E-07</v>
       </c>
       <c r="T9">
-        <v>2.470220722559098E-05</v>
+        <v>4.055259244996861E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>5.88457751260344</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H10">
-        <v>5.88457751260344</v>
+        <v>0.117076</v>
       </c>
       <c r="I10">
-        <v>0.06410014069972245</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J10">
-        <v>0.06410014069972245</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.50091655847057</v>
+        <v>1.297988666666667</v>
       </c>
       <c r="N10">
-        <v>0.50091655847057</v>
+        <v>3.893966</v>
       </c>
       <c r="O10">
-        <v>0.002911497918145221</v>
+        <v>0.007017803361096332</v>
       </c>
       <c r="P10">
-        <v>0.002911497918145221</v>
+        <v>0.007027858352498311</v>
       </c>
       <c r="Q10">
-        <v>2.947682315666623</v>
+        <v>0.05065444037955556</v>
       </c>
       <c r="R10">
-        <v>2.947682315666623</v>
+        <v>0.4558899634160001</v>
       </c>
       <c r="S10">
-        <v>0.0001866274262000577</v>
+        <v>2.874382312843535E-06</v>
       </c>
       <c r="T10">
-        <v>0.0001866274262000577</v>
+        <v>3.472145864747719E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>5.88457751260344</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H11">
-        <v>5.88457751260344</v>
+        <v>0.117076</v>
       </c>
       <c r="I11">
-        <v>0.06410014069972245</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J11">
-        <v>0.06410014069972245</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>170.507715292399</v>
+        <v>0.291303</v>
       </c>
       <c r="N11">
-        <v>170.507715292399</v>
+        <v>0.582606</v>
       </c>
       <c r="O11">
-        <v>0.9910490074779278</v>
+        <v>0.001574980756763756</v>
       </c>
       <c r="P11">
-        <v>0.9910490074779278</v>
+        <v>0.001051491575251461</v>
       </c>
       <c r="Q11">
-        <v>1003.365867135041</v>
+        <v>0.011368196676</v>
       </c>
       <c r="R11">
-        <v>1003.365867135041</v>
+        <v>0.068209180056</v>
       </c>
       <c r="S11">
-        <v>0.06352638081965545</v>
+        <v>6.450874436589278E-07</v>
       </c>
       <c r="T11">
-        <v>0.06352638081965545</v>
+        <v>5.194942672014109E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.88457751260344</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H12">
-        <v>5.88457751260344</v>
+        <v>12.642862</v>
       </c>
       <c r="I12">
-        <v>0.06410014069972245</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J12">
-        <v>0.06410014069972245</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.882876332033295</v>
+        <v>0.5025675000000001</v>
       </c>
       <c r="N12">
-        <v>0.882876332033295</v>
+        <v>1.005135</v>
       </c>
       <c r="O12">
-        <v>0.005131578422049008</v>
+        <v>0.002717219326525538</v>
       </c>
       <c r="P12">
-        <v>0.005131578422049008</v>
+        <v>0.001814075008651434</v>
       </c>
       <c r="Q12">
-        <v>5.195354209892936</v>
+        <v>2.117963849395</v>
       </c>
       <c r="R12">
-        <v>5.195354209892936</v>
+        <v>12.70778309637</v>
       </c>
       <c r="S12">
-        <v>0.0003289348988650011</v>
+        <v>0.0001201836952955478</v>
       </c>
       <c r="T12">
-        <v>0.0003289348988650011</v>
+        <v>9.678492633958149E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.88457751260344</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H13">
-        <v>5.88457751260344</v>
+        <v>12.642862</v>
       </c>
       <c r="I13">
-        <v>0.06410014069972245</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J13">
-        <v>0.06410014069972245</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.156204902765566</v>
+        <v>182.713089</v>
       </c>
       <c r="N13">
-        <v>0.156204902765566</v>
+        <v>548.139267</v>
       </c>
       <c r="O13">
-        <v>0.0009079161818779087</v>
+        <v>0.9878703589865653</v>
       </c>
       <c r="P13">
-        <v>0.0009079161818779087</v>
+        <v>0.9892857631315353</v>
       </c>
       <c r="Q13">
-        <v>0.9191998581726566</v>
+        <v>770.0054566069059</v>
       </c>
       <c r="R13">
-        <v>0.9191998581726566</v>
+        <v>6930.049109462154</v>
       </c>
       <c r="S13">
-        <v>5.819755500192875E-05</v>
+        <v>0.04369390025197471</v>
       </c>
       <c r="T13">
-        <v>5.819755500192875E-05</v>
+        <v>0.05278059024949602</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.6389151303161</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H14">
-        <v>34.6389151303161</v>
+        <v>12.642862</v>
       </c>
       <c r="I14">
-        <v>0.377318393509729</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J14">
-        <v>0.377318393509729</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.50091655847057</v>
+        <v>0.1515973333333333</v>
       </c>
       <c r="N14">
-        <v>0.50091655847057</v>
+        <v>0.454792</v>
       </c>
       <c r="O14">
-        <v>0.002911497918145221</v>
+        <v>0.000819637569049068</v>
       </c>
       <c r="P14">
-        <v>0.002911497918145221</v>
+        <v>0.0008208119320634572</v>
       </c>
       <c r="Q14">
-        <v>17.3512061562321</v>
+        <v>0.6388747216337778</v>
       </c>
       <c r="R14">
-        <v>17.3512061562321</v>
+        <v>5.749872494704</v>
       </c>
       <c r="S14">
-        <v>0.001098561717181475</v>
+        <v>3.625289680878871E-05</v>
       </c>
       <c r="T14">
-        <v>0.001098561717181475</v>
+        <v>4.37921375932894E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.6389151303161</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H15">
-        <v>34.6389151303161</v>
+        <v>12.642862</v>
       </c>
       <c r="I15">
-        <v>0.377318393509729</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J15">
-        <v>0.377318393509729</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>170.507715292399</v>
+        <v>1.297988666666667</v>
       </c>
       <c r="N15">
-        <v>170.507715292399</v>
+        <v>3.893966</v>
       </c>
       <c r="O15">
-        <v>0.9910490074779278</v>
+        <v>0.007017803361096332</v>
       </c>
       <c r="P15">
-        <v>0.9910490074779278</v>
+        <v>0.007027858352498311</v>
       </c>
       <c r="Q15">
-        <v>5906.20227907751</v>
+        <v>5.470097196743556</v>
       </c>
       <c r="R15">
-        <v>5906.20227907751</v>
+        <v>49.230874770692</v>
       </c>
       <c r="S15">
-        <v>0.3739410193909831</v>
+        <v>0.000310400243572736</v>
       </c>
       <c r="T15">
-        <v>0.3739410193909831</v>
+        <v>0.0003749518348071003</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.6389151303161</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H16">
-        <v>34.6389151303161</v>
+        <v>12.642862</v>
       </c>
       <c r="I16">
-        <v>0.377318393509729</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J16">
-        <v>0.377318393509729</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.882876332033295</v>
+        <v>0.291303</v>
       </c>
       <c r="N16">
-        <v>0.882876332033295</v>
+        <v>0.582606</v>
       </c>
       <c r="O16">
-        <v>0.005131578422049008</v>
+        <v>0.001574980756763756</v>
       </c>
       <c r="P16">
-        <v>0.005131578422049008</v>
+        <v>0.001051491575251461</v>
       </c>
       <c r="Q16">
-        <v>30.58187833586608</v>
+        <v>1.227634543062</v>
       </c>
       <c r="R16">
-        <v>30.58187833586608</v>
+        <v>7.365807258371999</v>
       </c>
       <c r="S16">
-        <v>0.001936238926376722</v>
+        <v>6.966202747029793E-05</v>
       </c>
       <c r="T16">
-        <v>0.001936238926376722</v>
+        <v>5.609940833320717E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,309 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.6389151303161</v>
+        <v>5.925740333333333</v>
       </c>
       <c r="H17">
-        <v>34.6389151303161</v>
+        <v>17.777221</v>
       </c>
       <c r="I17">
-        <v>0.377318393509729</v>
+        <v>0.06219268864816602</v>
       </c>
       <c r="J17">
-        <v>0.377318393509729</v>
+        <v>0.07501894587795323</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.156204902765566</v>
+        <v>0.5025675000000001</v>
       </c>
       <c r="N17">
-        <v>0.156204902765566</v>
+        <v>1.005135</v>
       </c>
       <c r="O17">
-        <v>0.0009079161818779087</v>
+        <v>0.002717219326525538</v>
       </c>
       <c r="P17">
-        <v>0.0009079161818779087</v>
+        <v>0.001814075008651434</v>
       </c>
       <c r="Q17">
-        <v>5.410768369835719</v>
+        <v>2.9780845049725</v>
       </c>
       <c r="R17">
-        <v>5.410768369835719</v>
+        <v>17.868507029835</v>
       </c>
       <c r="S17">
-        <v>0.0003425734751876594</v>
+        <v>0.0001689911755633822</v>
       </c>
       <c r="T17">
-        <v>0.0003425734751876594</v>
+        <v>0.0001360899948925695</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.18471258276918</v>
+        <v>5.925740333333333</v>
       </c>
       <c r="H18">
-        <v>2.18471258276918</v>
+        <v>17.777221</v>
       </c>
       <c r="I18">
-        <v>0.02379786546171301</v>
+        <v>0.06219268864816602</v>
       </c>
       <c r="J18">
-        <v>0.02379786546171301</v>
+        <v>0.07501894587795323</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.50091655847057</v>
+        <v>182.713089</v>
       </c>
       <c r="N18">
-        <v>0.50091655847057</v>
+        <v>548.139267</v>
       </c>
       <c r="O18">
-        <v>0.002911497918145221</v>
+        <v>0.9878703589865653</v>
       </c>
       <c r="P18">
-        <v>0.002911497918145221</v>
+        <v>0.9892857631315353</v>
       </c>
       <c r="Q18">
-        <v>1.094358708208088</v>
+        <v>1082.710320915223</v>
       </c>
       <c r="R18">
-        <v>1.094358708208088</v>
+        <v>9744.392888237006</v>
       </c>
       <c r="S18">
-        <v>6.928743574807749E-05</v>
+        <v>0.06143831366120345</v>
       </c>
       <c r="T18">
-        <v>6.928743574807749E-05</v>
+        <v>0.0742151751221943</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.18471258276918</v>
+        <v>5.925740333333333</v>
       </c>
       <c r="H19">
-        <v>2.18471258276918</v>
+        <v>17.777221</v>
       </c>
       <c r="I19">
-        <v>0.02379786546171301</v>
+        <v>0.06219268864816602</v>
       </c>
       <c r="J19">
-        <v>0.02379786546171301</v>
+        <v>0.07501894587795323</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>170.507715292399</v>
+        <v>0.1515973333333333</v>
       </c>
       <c r="N19">
-        <v>170.507715292399</v>
+        <v>0.454792</v>
       </c>
       <c r="O19">
-        <v>0.9910490074779278</v>
+        <v>0.000819637569049068</v>
       </c>
       <c r="P19">
-        <v>0.9910490074779278</v>
+        <v>0.0008208119320634572</v>
       </c>
       <c r="Q19">
-        <v>372.510351058529</v>
+        <v>0.898326432559111</v>
       </c>
       <c r="R19">
-        <v>372.510351058529</v>
+        <v>8.084937893031999</v>
       </c>
       <c r="S19">
-        <v>0.02358485094592394</v>
+        <v>5.097546413620837E-05</v>
       </c>
       <c r="T19">
-        <v>0.02358485094592394</v>
+        <v>6.157644590744672E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.18471258276918</v>
+        <v>5.925740333333333</v>
       </c>
       <c r="H20">
-        <v>2.18471258276918</v>
+        <v>17.777221</v>
       </c>
       <c r="I20">
-        <v>0.02379786546171301</v>
+        <v>0.06219268864816602</v>
       </c>
       <c r="J20">
-        <v>0.02379786546171301</v>
+        <v>0.07501894587795323</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.882876332033295</v>
+        <v>1.297988666666667</v>
       </c>
       <c r="N20">
-        <v>0.882876332033295</v>
+        <v>3.893966</v>
       </c>
       <c r="O20">
-        <v>0.005131578422049008</v>
+        <v>0.007017803361096332</v>
       </c>
       <c r="P20">
-        <v>0.005131578422049008</v>
+        <v>0.007027858352498311</v>
       </c>
       <c r="Q20">
-        <v>1.92883103162224</v>
+        <v>7.691543794276222</v>
       </c>
       <c r="R20">
-        <v>1.92883103162224</v>
+        <v>69.223894148486</v>
       </c>
       <c r="S20">
-        <v>0.0001221206128941518</v>
+        <v>0.0004364560594307172</v>
       </c>
       <c r="T20">
-        <v>0.0001221206128941518</v>
+        <v>0.0005272225253839923</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.925740333333333</v>
+      </c>
+      <c r="H21">
+        <v>17.777221</v>
+      </c>
+      <c r="I21">
+        <v>0.06219268864816602</v>
+      </c>
+      <c r="J21">
+        <v>0.07501894587795323</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.291303</v>
+      </c>
+      <c r="N21">
+        <v>0.582606</v>
+      </c>
+      <c r="O21">
+        <v>0.001574980756763756</v>
+      </c>
+      <c r="P21">
+        <v>0.001051491575251461</v>
+      </c>
+      <c r="Q21">
+        <v>1.726185936321</v>
+      </c>
+      <c r="R21">
+        <v>10.357115617926</v>
+      </c>
+      <c r="S21">
+        <v>9.795228783226115E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.888178957491313E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>36.230025</v>
+      </c>
+      <c r="H22">
+        <v>108.690075</v>
+      </c>
+      <c r="I22">
+        <v>0.3802466084896404</v>
+      </c>
+      <c r="J22">
+        <v>0.4586664503915251</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5025675000000001</v>
+      </c>
+      <c r="N22">
+        <v>1.005135</v>
+      </c>
+      <c r="O22">
+        <v>0.002717219326525538</v>
+      </c>
+      <c r="P22">
+        <v>0.001814075008651434</v>
+      </c>
+      <c r="Q22">
+        <v>18.2080330891875</v>
+      </c>
+      <c r="R22">
+        <v>109.248198535125</v>
+      </c>
+      <c r="S22">
+        <v>0.001033213433433841</v>
+      </c>
+      <c r="T22">
+        <v>0.0008320553449621285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>36.230025</v>
+      </c>
+      <c r="H23">
+        <v>108.690075</v>
+      </c>
+      <c r="I23">
+        <v>0.3802466084896404</v>
+      </c>
+      <c r="J23">
+        <v>0.4586664503915251</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>182.713089</v>
+      </c>
+      <c r="N23">
+        <v>548.139267</v>
+      </c>
+      <c r="O23">
+        <v>0.9878703589865653</v>
+      </c>
+      <c r="P23">
+        <v>0.9892857631315353</v>
+      </c>
+      <c r="Q23">
+        <v>6619.699782297224</v>
+      </c>
+      <c r="R23">
+        <v>59577.29804067502</v>
+      </c>
+      <c r="S23">
+        <v>0.375634353632085</v>
+      </c>
+      <c r="T23">
+        <v>0.4537521893984124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>36.230025</v>
+      </c>
+      <c r="H24">
+        <v>108.690075</v>
+      </c>
+      <c r="I24">
+        <v>0.3802466084896404</v>
+      </c>
+      <c r="J24">
+        <v>0.4586664503915251</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1515973333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.454792</v>
+      </c>
+      <c r="O24">
+        <v>0.000819637569049068</v>
+      </c>
+      <c r="P24">
+        <v>0.0008208119320634572</v>
+      </c>
+      <c r="Q24">
+        <v>5.4923751766</v>
+      </c>
+      <c r="R24">
+        <v>49.4313765894</v>
+      </c>
+      <c r="S24">
+        <v>0.0003116644058216015</v>
+      </c>
+      <c r="T24">
+        <v>0.0003764788953185555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>36.230025</v>
+      </c>
+      <c r="H25">
+        <v>108.690075</v>
+      </c>
+      <c r="I25">
+        <v>0.3802466084896404</v>
+      </c>
+      <c r="J25">
+        <v>0.4586664503915251</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.297988666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.893966</v>
+      </c>
+      <c r="O25">
+        <v>0.007017803361096332</v>
+      </c>
+      <c r="P25">
+        <v>0.007027858352498311</v>
+      </c>
+      <c r="Q25">
+        <v>47.02616184305</v>
+      </c>
+      <c r="R25">
+        <v>423.23545658745</v>
+      </c>
+      <c r="S25">
+        <v>0.00266849592710408</v>
+      </c>
+      <c r="T25">
+        <v>0.003223442844394832</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>36.230025</v>
+      </c>
+      <c r="H26">
+        <v>108.690075</v>
+      </c>
+      <c r="I26">
+        <v>0.3802466084896404</v>
+      </c>
+      <c r="J26">
+        <v>0.4586664503915251</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.291303</v>
+      </c>
+      <c r="N26">
+        <v>0.582606</v>
+      </c>
+      <c r="O26">
+        <v>0.001574980756763756</v>
+      </c>
+      <c r="P26">
+        <v>0.001051491575251461</v>
+      </c>
+      <c r="Q26">
+        <v>10.553914972575</v>
+      </c>
+      <c r="R26">
+        <v>63.32348983544999</v>
+      </c>
+      <c r="S26">
+        <v>0.0005988810911958653</v>
+      </c>
+      <c r="T26">
+        <v>0.0004822839084371808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.1940915</v>
+      </c>
+      <c r="H27">
+        <v>4.388183</v>
+      </c>
+      <c r="I27">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J27">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.5025675000000001</v>
+      </c>
+      <c r="N27">
+        <v>1.005135</v>
+      </c>
+      <c r="O27">
+        <v>0.002717219326525538</v>
+      </c>
+      <c r="P27">
+        <v>0.001814075008651434</v>
+      </c>
+      <c r="Q27">
+        <v>1.10267907992625</v>
+      </c>
+      <c r="R27">
+        <v>4.410716319705</v>
+      </c>
+      <c r="S27">
+        <v>6.257143935128408E-05</v>
+      </c>
+      <c r="T27">
+        <v>3.359286595231394E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.1940915</v>
+      </c>
+      <c r="H28">
+        <v>4.388183</v>
+      </c>
+      <c r="I28">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J28">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>182.713089</v>
+      </c>
+      <c r="N28">
+        <v>548.139267</v>
+      </c>
+      <c r="O28">
+        <v>0.9878703589865653</v>
+      </c>
+      <c r="P28">
+        <v>0.9892857631315353</v>
+      </c>
+      <c r="Q28">
+        <v>400.8892355136435</v>
+      </c>
+      <c r="R28">
+        <v>2405.335413081861</v>
+      </c>
+      <c r="S28">
+        <v>0.02274842875245468</v>
+      </c>
+      <c r="T28">
+        <v>0.01831949829578178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.1940915</v>
+      </c>
+      <c r="H29">
+        <v>4.388183</v>
+      </c>
+      <c r="I29">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J29">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1515973333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.454792</v>
+      </c>
+      <c r="O29">
+        <v>0.000819637569049068</v>
+      </c>
+      <c r="P29">
+        <v>0.0008208119320634572</v>
+      </c>
+      <c r="Q29">
+        <v>0.3326184204893333</v>
+      </c>
+      <c r="R29">
+        <v>1.995710522936</v>
+      </c>
+      <c r="S29">
+        <v>1.887440661897767E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.519971614975576E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.18471258276918</v>
-      </c>
-      <c r="H21">
-        <v>2.18471258276918</v>
-      </c>
-      <c r="I21">
-        <v>0.02379786546171301</v>
-      </c>
-      <c r="J21">
-        <v>0.02379786546171301</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.156204902765566</v>
-      </c>
-      <c r="N21">
-        <v>0.156204902765566</v>
-      </c>
-      <c r="O21">
-        <v>0.0009079161818779087</v>
-      </c>
-      <c r="P21">
-        <v>0.0009079161818779087</v>
-      </c>
-      <c r="Q21">
-        <v>0.3412628165621683</v>
-      </c>
-      <c r="R21">
-        <v>0.3412628165621683</v>
-      </c>
-      <c r="S21">
-        <v>2.160646714684263E-05</v>
-      </c>
-      <c r="T21">
-        <v>2.160646714684263E-05</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.1940915</v>
+      </c>
+      <c r="H30">
+        <v>4.388183</v>
+      </c>
+      <c r="I30">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J30">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.297988666666667</v>
+      </c>
+      <c r="N30">
+        <v>3.893966</v>
+      </c>
+      <c r="O30">
+        <v>0.007017803361096332</v>
+      </c>
+      <c r="P30">
+        <v>0.007027858352498311</v>
+      </c>
+      <c r="Q30">
+        <v>2.847905900629666</v>
+      </c>
+      <c r="R30">
+        <v>17.087435403778</v>
+      </c>
+      <c r="S30">
+        <v>0.0001616042006993835</v>
+      </c>
+      <c r="T30">
+        <v>0.0001301412027845693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.1940915</v>
+      </c>
+      <c r="H31">
+        <v>4.388183</v>
+      </c>
+      <c r="I31">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J31">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.291303</v>
+      </c>
+      <c r="N31">
+        <v>0.582606</v>
+      </c>
+      <c r="O31">
+        <v>0.001574980756763756</v>
+      </c>
+      <c r="P31">
+        <v>0.001051491575251461</v>
+      </c>
+      <c r="Q31">
+        <v>0.6391454362244999</v>
+      </c>
+      <c r="R31">
+        <v>2.556581744898</v>
+      </c>
+      <c r="S31">
+        <v>3.62682584873616E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.947141952176952E-05</v>
       </c>
     </row>
   </sheetData>
